--- a/TimeCardCore/wwwroot/content/2GTemplate.xlsx
+++ b/TimeCardCore/wwwroot/content/2GTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcorr\development\TimeCardCore\TimeCardCore\wwwroot\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDA1457-4BB4-446F-BBE8-38BA9C03F9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCA0E5-791E-4B89-843E-A636063B9EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="90" windowWidth="29040" windowHeight="15255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,7 +944,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1173,6 +1173,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="8" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1194,8 +1202,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="8" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2821,7 +2827,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F12" sqref="F12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2855,11 +2861,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="L1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
       <c r="P1" s="104" t="s">
         <v>27</v>
       </c>
@@ -2879,9 +2885,9 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
       <c r="P2" s="104" t="s">
         <v>28</v>
       </c>
@@ -2898,9 +2904,9 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
       <c r="P3" s="104" t="s">
         <v>40</v>
       </c>
@@ -2919,9 +2925,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -2976,14 +2982,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="118"/>
+      <c r="H7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="84">
         <v>45275</v>
       </c>
@@ -3130,36 +3136,36 @@
       <c r="N11" s="51"/>
     </row>
     <row r="12" spans="1:21" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="119"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3216,7 +3222,7 @@
       <c r="A16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -3435,7 +3441,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F12" sqref="F12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3471,11 +3477,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="L1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -3489,9 +3495,9 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -3505,9 +3511,9 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -3523,9 +3529,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -3581,14 +3587,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="118"/>
+      <c r="H7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="22">
         <f>'2g_wk1'!J7+7</f>
         <v>45282</v>
@@ -3731,7 +3737,17 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+    </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
       <c r="B13" s="34"/>
@@ -4019,7 +4035,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F12" sqref="F12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4055,11 +4071,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="L1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4073,9 +4089,9 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4089,9 +4105,9 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4107,9 +4123,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -4165,14 +4181,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="118"/>
+      <c r="H7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="22">
         <f>'2g_wk1'!J7+14</f>
         <v>45289</v>
@@ -4315,7 +4331,17 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+    </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
       <c r="B13" s="34"/>
@@ -4604,7 +4630,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="F12" sqref="F12:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4640,11 +4666,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
+      <c r="L1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4658,9 +4684,9 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4674,9 +4700,9 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4692,9 +4718,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -4750,14 +4776,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="118"/>
+      <c r="H7" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="116"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="22">
         <f>'2g_wk1'!J7+21</f>
         <v>45296</v>
@@ -4900,7 +4926,17 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+    </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
       <c r="B13" s="34"/>
@@ -5188,7 +5224,7 @@
   <dimension ref="A3:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5258,11 +5294,11 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="77"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="77"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -5372,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="101">
-        <f>SUMIF('2g_wk3'!$D$11:$D$12, B9,'2g_wk3'!$N$11:$N$12)</f>
+        <f>SUMIF('2g_wk3'!$D$11:$D$12, B1,'2g_wk3'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
       <c r="F11" s="101">

--- a/TimeCardCore/wwwroot/content/2GTemplate.xlsx
+++ b/TimeCardCore/wwwroot/content/2GTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcorr\development\TimeCardCore\TimeCardCore\wwwroot\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCA0E5-791E-4B89-843E-A636063B9EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E36774D-7E9E-4A0F-B124-28DD0AAC90CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="90" windowWidth="29040" windowHeight="15255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2g_wk1" sheetId="1" r:id="rId1"/>
@@ -1152,15 +1152,8 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1202,6 +1195,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="39" fontId="16" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="5" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="39" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2861,12 +2861,12 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="P1" s="104" t="s">
+      <c r="L1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="P1" s="102" t="s">
         <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2885,10 +2885,10 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="P2" s="104" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="P2" s="102" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2904,10 +2904,10 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="P3" s="104" t="s">
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="P3" s="102" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2925,9 +2925,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
     </row>
     <row r="5" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -2982,14 +2982,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="119" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="120"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="84">
         <v>45275</v>
       </c>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="30"/>
@@ -3135,37 +3135,37 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:21" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
+    <row r="12" spans="1:21" s="108" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="110"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3222,7 +3222,7 @@
       <c r="A16" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="112"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -3311,10 +3311,10 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="111"/>
+      <c r="B27" s="108"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="111"/>
+      <c r="B38" s="108"/>
     </row>
   </sheetData>
   <autoFilter ref="D10:D12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -3477,11 +3477,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
+      <c r="L1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -3495,9 +3495,9 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -3511,9 +3511,9 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -3529,9 +3529,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -3587,14 +3587,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="119" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="120"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="22">
         <f>'2g_wk1'!J7+7</f>
         <v>45282</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="30"/>
@@ -3737,16 +3737,16 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
+    <row r="12" spans="1:20" s="108" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
@@ -4071,11 +4071,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
+      <c r="L1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4089,9 +4089,9 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4105,9 +4105,9 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4123,9 +4123,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -4181,14 +4181,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="119" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="120"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="22">
         <f>'2g_wk1'!J7+14</f>
         <v>45289</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="30"/>
@@ -4331,16 +4331,16 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
+    <row r="12" spans="1:20" s="108" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
@@ -4666,11 +4666,11 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-      <c r="L1" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
+      <c r="L1" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4684,9 +4684,9 @@
         <v>1</v>
       </c>
       <c r="K2"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -4700,9 +4700,9 @@
         <v>2</v>
       </c>
       <c r="K3"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
     </row>
     <row r="4" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -4718,9 +4718,9 @@
         <v>3</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -4776,14 +4776,14 @@
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="117" t="s">
+      <c r="F7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="119" t="s">
+      <c r="G7" s="115"/>
+      <c r="H7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="120"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="22">
         <f>'2g_wk1'!J7+21</f>
         <v>45296</v>
@@ -4816,7 +4816,7 @@
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="101" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="30"/>
@@ -4926,16 +4926,16 @@
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
     </row>
-    <row r="12" spans="1:20" s="111" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
+    <row r="12" spans="1:20" s="108" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
     </row>
     <row r="13" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="94"/>
@@ -5224,7 +5224,7 @@
   <dimension ref="A3:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C12" sqref="C12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5267,7 +5267,7 @@
       <c r="D6" s="72"/>
       <c r="E6" s="73"/>
       <c r="F6" s="73"/>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="107" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5294,11 +5294,11 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="77"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="77"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="72"/>
@@ -5334,23 +5334,23 @@
       <c r="B9" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="120">
         <f>SUMIF('2g_wk1'!$D$11:$D$12,B9, '2g_wk1'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="120">
         <f>SUMIF('2g_wk2'!$D$11:$D$12,B9, '2g_wk2'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="120">
         <f>SUMIF('2g_wk3'!$D$11:$D$12, B9,'2g_wk3'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="120">
         <f>SUMIF('2g_wk4'!$D$11:$D$12, B9,'2g_wk4'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="102">
+      <c r="G9" s="121">
         <f>SUM(C9:F9)</f>
         <v>0</v>
       </c>
@@ -5366,23 +5366,23 @@
       <c r="B10" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="120">
         <f>SUMIF('2g_wk1'!$D$11:$D$12,B10, '2g_wk1'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="120">
         <f>SUMIF('2g_wk2'!$D$11:$D$12,B10, '2g_wk2'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="120">
         <f>SUMIF('2g_wk3'!$D$11:$D$12, B10,'2g_wk3'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="120">
         <f>SUMIF('2g_wk4'!$D$11:$D$12, B10,'2g_wk4'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="121">
         <f>SUM(C10:F10)</f>
         <v>0</v>
       </c>
@@ -5399,23 +5399,23 @@
       <c r="B11" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="120">
         <f>SUMIF('2g_wk1'!$D$11:$D$12,B11, '2g_wk1'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="120">
         <f>SUMIF('2g_wk2'!$D$11:$D$12,B11, '2g_wk2'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="120">
         <f>SUMIF('2g_wk3'!$D$11:$D$12, B1,'2g_wk3'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="120">
         <f>SUMIF('2g_wk4'!$D$11:$D$12, B11,'2g_wk4'!$N$11:$N$12)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="121">
         <f>SUM(C11:F11)</f>
         <v>0</v>
       </c>
@@ -5428,19 +5428,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
-      <c r="C12" s="105">
+      <c r="C12" s="122">
         <f>SUM(C9:C11)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="122">
         <f>SUM(D9:D11)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="105">
+      <c r="E12" s="122">
         <f>SUM(E9:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="122">
         <f>SUM(F9:F11)</f>
         <v>0</v>
       </c>
@@ -5464,55 +5464,55 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="108" t="e">
+      <c r="C15" s="105" t="e">
         <f>+C9*(1+C11)/(C9+C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="108" t="e">
+      <c r="D15" s="105" t="e">
         <f>+D9*(1+D11)/(D9+D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="108" t="e">
+      <c r="E15" s="105" t="e">
         <f>+E9*(1+E11)/(E9+E10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="108" t="e">
+      <c r="F15" s="105" t="e">
         <f>+F9*(1+F11)/(F9+F10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="109"/>
+      <c r="G15" s="106"/>
     </row>
     <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="108" t="e">
+      <c r="C16" s="105" t="e">
         <f>+C10*(1+C11)/(C10+C9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D16" s="108" t="e">
+      <c r="D16" s="105" t="e">
         <f>+D10*(1+D11)/(D10+D9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="108" t="e">
+      <c r="E16" s="105" t="e">
         <f>+E10*(1+E11)/(E10+E9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="108" t="e">
+      <c r="F16" s="105" t="e">
         <f>+F10*(1+F11)/(F10+F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="109"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
-      <c r="G17" s="106"/>
+      <c r="G17" s="103"/>
     </row>
     <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
